--- a/similarities/split_global/harmonic_similarity_timestamps_193.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_193.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,722 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:42.880000', '0:00:45.100000')]</t>
+          <t>('0:00:09.200000', '0:00:20.100000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:13.720000', '0:00:22.200000')]</t>
+          <t>('0:00:49.560000', '0:00:55.720000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=42.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=9.2</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=13.72']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:04.860000', '0:00:09.640000')]</t>
+          <t>('0:01:08.640000', '0:01:17.380000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:06.260000')]</t>
+          <t>('0:04:03.440000', '0:04:09.260000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=4.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C'], ['G:7', 'C:min', 'B:dim7/C', 'C:min']]</t>
+          <t>['C:min', 'F:7/A', 'A#:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:min', 'G#:dim7', 'A:min', 'G#:dim7'], ['E:7', 'A:min', 'G#:dim7', 'A:min']]</t>
+          <t>['C:min', 'F:7/C', 'A#']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:07.220000'), ('0:01:13', '0:01:22.740000')]</t>
+          <t>('0:00:36.140000', '0:00:42.720000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:20.840000', '0:00:26.580000'), ('0:00:19.360000', '0:00:25.140000')]</t>
+          <t>('0:00:38.200000', '0:00:41.060000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=0.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=73.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=36.14</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=20.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=19.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=38.2</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:05.915850', '0:00:17.734807')]</t>
+          <t>('0:01:22.500000', '0:01:30.740000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+          <t>('0:00:13.180000', '0:00:19.520000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=82.5</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>isophonics_114</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7', 'F']]</t>
+          <t>['E', 'B', 'E']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:07.980000', '0:00:10.540000')]</t>
+          <t>('0:00:41.080000', '0:00:43.260000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:10.130000', '0:00:14.450000')]</t>
+          <t>('0:00:30.654941', '0:00:38.514896')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=7.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=10.13']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=30.654941</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:32.980000', '0:00:35.260000')]</t>
+          <t>('0:00:03.820000', '0:00:08.620000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:05.260000', '0:01:11.040000')]</t>
+          <t>('0:02:11.200000', '0:02:16.340000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=32.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=3.82</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=65.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:40.280000', '0:00:48.720000')]</t>
+          <t>('0:00:24.520000', '0:00:54.820000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:46.120000', '0:00:50.740000')]</t>
+          <t>('0:00:31.910000', '0:00:44.110000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=40.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=24.52</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=46.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=31.91</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['D', 'A', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:04.840000'), ('0:00:07.700000', '0:00:12.060000')]</t>
+          <t>('0:01:03.740000', '0:01:09.960000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:13.740000', '0:00:22.560000'), ('0:01:24', '0:01:30.840000')]</t>
+          <t>('0:01:02.932448', '0:01:12.777709')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=0.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=7.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=63.74</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=13.74', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=84.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=62.932448</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>jaah_6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['A/3', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:30.500000', '0:00:41.370000')]</t>
+          <t>('0:00:14.300000', '0:00:15.210000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:06.100000', '0:01:24.780000')]</t>
+          <t>('0:00:58.557000', '0:01:02.834000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=66.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>schubert-winterreise_38</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['F:hdim7/G#', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['A:hdim7/D#', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:05')]</t>
+          <t>('0:00:23.840000', '0:00:31.400000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:41.380000', '0:00:43.340000')]</t>
+          <t>('0:01:38.020000', '0:01:50.760000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=23.84</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.38']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=98.02</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>schubert-winterreise_93</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G', 'E:min', 'A:min'], ['G', 'C', 'G']]</t>
+          <t>['C#:maj/G#', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:26.115071', '0:00:38.793167'), ('0:00:17.581738', '0:00:30.271443')]</t>
+          <t>('0:00:36.600000', '0:00:39')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:08.720000', '0:00:16.920000'), ('0:00:18.260000', '0:00:24.820000')]</t>
+          <t>('0:00:34.640000', '0:00:39')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=26.115071', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=17.581738']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=36.6</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=8.72', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=34.64</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>schubert-winterreise_71</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab', 'Db']]</t>
+          <t>['D#:maj', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['D#/G', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:03.129454', '0:00:05.822970')]</t>
+          <t>('0:01:55.700000', '0:02:10.980000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
+          <t>('0:01:02.380000', '0:01:07.200000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=115.7</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=62.38</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab', 'Db']]</t>
+          <t>['E', 'B:7', 'E', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'B', 'E/5']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:02:03.030000', '0:02:09.590000')]</t>
+          <t>('0:01:01.683832', '0:01:11.056785')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:55.629773', '0:01:10.444104')]</t>
+          <t>('0:00:00.580000', '0:00:10.180000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:08.150589', '0:01:20.236575')]</t>
+          <t>('0:00:00.580000', '0:00:08.960000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:02:12.380000', '0:02:14.600000')]</t>
+          <t>('0:01:19.980000', '0:01:33.600000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=68.150589']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=132.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C#', 'F#/5', 'C#']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:00:32.080000', '0:00:41.940000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:01.206300', '0:01:58.925813')]</t>
+          <t>('0:00:00.240000', '0:00:09.280000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=32.08</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
